--- a/versions/V1p8/gerbers/6_Park_V1p8_BOM.xlsx
+++ b/versions/V1p8/gerbers/6_Park_V1p8_BOM.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="177">
   <si>
     <t>RefDes</t>
   </si>
@@ -82,13 +82,13 @@
     <t>POL_330uF_50V_10x10</t>
   </si>
   <si>
-    <t>Lelon</t>
-  </si>
-  <si>
-    <t>VZT331M1HTR-1010</t>
-  </si>
-  <si>
-    <t>https://lcsc.com/product-detail/Others_Lelon-VZT331M1H1010-TRO_C249985.html</t>
+    <t>KS</t>
+  </si>
+  <si>
+    <t>UT1H331M1010VG</t>
+  </si>
+  <si>
+    <t>https://lcsc.com/product-detail/Aluminum-Electrolytic-Capacitors-SMD_KS-UT1H331M1010VG_C963258.html</t>
   </si>
   <si>
     <t>C16, C17</t>
@@ -133,13 +133,13 @@
     <t>POL_100uF_16V_6.3x5.4</t>
   </si>
   <si>
-    <t>PANASONIC</t>
-  </si>
-  <si>
-    <t>EEEHAC101WAP</t>
-  </si>
-  <si>
-    <t>https://lcsc.com/product-detail/Aluminum-Electrolytic-Capacitors-SMD_PANASONIC-EEEHAC101WAP_C336467.html</t>
+    <t xml:space="preserve">ROQANG </t>
+  </si>
+  <si>
+    <t>RT1C101M0605</t>
+  </si>
+  <si>
+    <t>https://lcsc.com/product-detail/Aluminum-Electrolytic-Capacitors-SMD_ROQANG-RT1C101M0605_C267461.html</t>
   </si>
   <si>
     <t>C21</t>
@@ -184,25 +184,28 @@
     <t>Schottkey_40V_3A_DO-214AC</t>
   </si>
   <si>
+    <t>MDD（Microdiode Electronics）</t>
+  </si>
+  <si>
+    <t>B340A</t>
+  </si>
+  <si>
+    <t>https://lcsc.com/product-detail/Schottky-Barrier-Diodes-SBD_Jiangsu-Yutai-Elec-B340A_C64982.html</t>
+  </si>
+  <si>
+    <t>D2</t>
+  </si>
+  <si>
+    <t>B560C</t>
+  </si>
+  <si>
     <t>Diodes Incorporated</t>
   </si>
   <si>
-    <t>B340A-13-F</t>
-  </si>
-  <si>
-    <t>https://lcsc.com/product-detail/Schottky-Barrier-Diodes-SBD_DIODES_B340A-13-F_B340A-13-F_C85098.html</t>
-  </si>
-  <si>
-    <t>D2</t>
-  </si>
-  <si>
-    <t>B560C</t>
-  </si>
-  <si>
     <t>B560C-13-F</t>
   </si>
   <si>
-    <t>https://jlcpcb.com/parts/componentSearch?searchTxt=LM2596</t>
+    <t>https://lcsc.com/product-detail/Schottky-Barrier-Diodes-SBD_Diodes-Incorporated-B560C-13-F_C85100.html</t>
   </si>
   <si>
     <t>J1, J8, J12, J15, J19, J26</t>
@@ -298,70 +301,64 @@
     <t>Header_2x6S_RA</t>
   </si>
   <si>
+    <t>JP1, JP2, JP3, JP4</t>
+  </si>
+  <si>
+    <t>Jumper_3p</t>
+  </si>
+  <si>
+    <t>L1</t>
+  </si>
+  <si>
+    <t>10uH</t>
+  </si>
+  <si>
+    <t>10uH_SMD_5.2x5.4</t>
+  </si>
+  <si>
+    <t>Sunlord</t>
+  </si>
+  <si>
+    <t>MWSA0503S-100MT</t>
+  </si>
+  <si>
+    <t>https://lcsc.com/product-detail/Power-Inductors_Sunlord-MWSA0503S-100MT_C408412.html</t>
+  </si>
+  <si>
+    <t>LED1</t>
+  </si>
+  <si>
+    <t>GRN</t>
+  </si>
+  <si>
+    <t>LED_GRN_0805 (Foshan)</t>
+  </si>
+  <si>
+    <t>Foshan NationStar Optoelectronics</t>
+  </si>
+  <si>
+    <t>NCD0805G1</t>
+  </si>
+  <si>
+    <t>https://lcsc.com/product-detail/Light-Emitting-Diodes-LED_Foshan-NationStar-Optoelectronics-NCD0805G1_C84260.html</t>
+  </si>
+  <si>
+    <t>MH1, MH2, MH3, MH4, MH5, MH6</t>
+  </si>
+  <si>
+    <t>Mounting_hole_M3.7</t>
+  </si>
+  <si>
+    <t>MOD1, MOD2, MOD3, MOD4, MOD5</t>
+  </si>
+  <si>
+    <t>1x12 Socket</t>
+  </si>
+  <si>
+    <t>CNC_Module_Socket</t>
+  </si>
+  <si>
     <t>CJT(Changjiang Connectors)</t>
-  </si>
-  <si>
-    <t>A2541HWR-2x6P</t>
-  </si>
-  <si>
-    <t>https://lcsc.com/product-detail/Pin-Header-Female-Header_CJT-Changjiang-Connectors-A2541HWR-2x6P_C239357.html</t>
-  </si>
-  <si>
-    <t>JP1, JP2, JP3, JP4</t>
-  </si>
-  <si>
-    <t>Jumper_3p</t>
-  </si>
-  <si>
-    <t>L1</t>
-  </si>
-  <si>
-    <t>10uH</t>
-  </si>
-  <si>
-    <t>10uH_SMD_5.2x5.4</t>
-  </si>
-  <si>
-    <t>Sunlord</t>
-  </si>
-  <si>
-    <t>MWSA0503S-100MT</t>
-  </si>
-  <si>
-    <t>https://lcsc.com/product-detail/Power-Inductors_Sunlord-MWSA0503S-100MT_C408412.html</t>
-  </si>
-  <si>
-    <t>LED1</t>
-  </si>
-  <si>
-    <t>GRN</t>
-  </si>
-  <si>
-    <t>LED_GRN_0805 (Foshan)</t>
-  </si>
-  <si>
-    <t>Foshan NationStar Optoelectronics</t>
-  </si>
-  <si>
-    <t>NCD0805G1</t>
-  </si>
-  <si>
-    <t>https://lcsc.com/product-detail/Light-Emitting-Diodes-LED_Foshan-NationStar-Optoelectronics-NCD0805G1_C84260.html</t>
-  </si>
-  <si>
-    <t>MH1, MH2, MH3, MH4, MH5, MH6</t>
-  </si>
-  <si>
-    <t>Mounting_hole_M3.7</t>
-  </si>
-  <si>
-    <t>MOD1, MOD2, MOD3, MOD4, MOD5</t>
-  </si>
-  <si>
-    <t>1x12 Socket</t>
-  </si>
-  <si>
-    <t>CNC_Module_Socket</t>
   </si>
   <si>
     <t>A2541HWV-12P</t>
@@ -624,10 +621,10 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" min="3" max="3" width="28.14"/>
-    <col customWidth="1" min="8" max="8" width="32.71"/>
+    <col customWidth="1" min="3" max="3" width="24.63"/>
+    <col customWidth="1" min="8" max="8" width="28.63"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -914,24 +911,24 @@
       </c>
       <c r="F11" s="2"/>
       <c r="G11" s="2" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D12" s="2">
         <v>6.0</v>
@@ -940,24 +937,24 @@
         <v>6.0</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D13" s="2">
         <v>12.0</v>
@@ -966,24 +963,24 @@
         <v>12.0</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D14" s="2">
         <v>4.0</v>
@@ -992,24 +989,24 @@
         <v>4.0</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="4" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>16</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D15" s="4"/>
       <c r="E15" s="4"/>
@@ -1020,13 +1017,13 @@
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D16" s="2">
         <v>1.0</v>
@@ -1035,24 +1032,24 @@
         <v>1.0</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="I16" s="3" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D17" s="2">
         <v>3.0</v>
@@ -1061,50 +1058,43 @@
         <v>3.0</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="I17" s="3" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="C18" s="2" t="s">
+      <c r="A18" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="D18" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="F18" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="G18" s="2" t="s">
+      <c r="B18" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="H18" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="I18" s="3" t="s">
-        <v>97</v>
-      </c>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="4"/>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D19" s="2">
         <v>4.0</v>
@@ -1113,24 +1103,24 @@
         <v>4.0</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="I19" s="3" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C20" s="2" t="s">
         <v>100</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>102</v>
       </c>
       <c r="D20" s="2">
         <v>1.0</v>
@@ -1140,24 +1130,24 @@
       </c>
       <c r="F20" s="2"/>
       <c r="G20" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="I20" s="3" t="s">
         <v>103</v>
-      </c>
-      <c r="H20" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="I20" s="3" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C21" s="2" t="s">
         <v>106</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>108</v>
       </c>
       <c r="D21" s="2">
         <v>1.0</v>
@@ -1167,24 +1157,24 @@
       </c>
       <c r="F21" s="2"/>
       <c r="G21" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="I21" s="3" t="s">
         <v>109</v>
-      </c>
-      <c r="H21" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="I21" s="3" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="4" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B22" s="4" t="s">
         <v>16</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D22" s="4"/>
       <c r="E22" s="4"/>
@@ -1195,13 +1185,13 @@
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C23" s="2" t="s">
         <v>114</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>116</v>
       </c>
       <c r="D23" s="2">
         <v>5.0</v>
@@ -1210,24 +1200,24 @@
         <v>5.0</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>95</v>
+        <v>115</v>
       </c>
       <c r="H23" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="I23" s="3" t="s">
         <v>117</v>
-      </c>
-      <c r="I23" s="3" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B24" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="C24" s="2" t="s">
         <v>120</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>121</v>
       </c>
       <c r="D24" s="2">
         <v>5.0</v>
@@ -1237,24 +1227,24 @@
       </c>
       <c r="F24" s="2"/>
       <c r="G24" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="H24" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="H24" s="2" t="s">
+      <c r="I24" s="3" t="s">
         <v>123</v>
-      </c>
-      <c r="I24" s="3" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B25" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="C25" s="2" t="s">
         <v>126</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>127</v>
       </c>
       <c r="D25" s="2">
         <v>1.0</v>
@@ -1264,24 +1254,24 @@
       </c>
       <c r="F25" s="2"/>
       <c r="G25" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="H25" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="H25" s="2" t="s">
+      <c r="I25" s="3" t="s">
         <v>129</v>
-      </c>
-      <c r="I25" s="3" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B26" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="C26" s="2" t="s">
         <v>132</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>133</v>
       </c>
       <c r="D26" s="2">
         <v>1.0</v>
@@ -1291,24 +1281,24 @@
       </c>
       <c r="F26" s="2"/>
       <c r="G26" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H26" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="I26" s="3" t="s">
         <v>134</v>
-      </c>
-      <c r="I26" s="3" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="B27" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="C27" s="2" t="s">
         <v>137</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>138</v>
       </c>
       <c r="D27" s="2">
         <v>1.0</v>
@@ -1318,24 +1308,24 @@
       </c>
       <c r="F27" s="2"/>
       <c r="G27" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H27" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="I27" s="3" t="s">
         <v>139</v>
-      </c>
-      <c r="I27" s="3" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B28" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="B28" s="2" t="s">
+      <c r="C28" s="2" t="s">
         <v>142</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>143</v>
       </c>
       <c r="D28" s="2">
         <v>1.0</v>
@@ -1345,24 +1335,24 @@
       </c>
       <c r="F28" s="2"/>
       <c r="G28" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H28" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="I28" s="3" t="s">
         <v>144</v>
-      </c>
-      <c r="I28" s="3" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B29" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="B29" s="2" t="s">
+      <c r="C29" s="2" t="s">
         <v>147</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>148</v>
       </c>
       <c r="D29" s="2">
         <v>1.0</v>
@@ -1372,24 +1362,24 @@
       </c>
       <c r="F29" s="2"/>
       <c r="G29" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H29" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="I29" s="3" t="s">
         <v>149</v>
-      </c>
-      <c r="I29" s="3" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="B30" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="B30" s="2" t="s">
+      <c r="C30" s="2" t="s">
         <v>152</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>153</v>
       </c>
       <c r="D30" s="2">
         <v>1.0</v>
@@ -1399,24 +1389,24 @@
       </c>
       <c r="F30" s="2"/>
       <c r="G30" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="H30" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="I30" s="3" t="s">
         <v>154</v>
-      </c>
-      <c r="H30" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="I30" s="3" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="B31" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="B31" s="2" t="s">
+      <c r="C31" s="2" t="s">
         <v>157</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>158</v>
       </c>
       <c r="D31" s="2">
         <v>6.0</v>
@@ -1425,50 +1415,50 @@
         <v>6.0</v>
       </c>
       <c r="G31" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="H31" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="H31" s="2" t="s">
+      <c r="I31" s="3" t="s">
         <v>160</v>
-      </c>
-      <c r="I31" s="3" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C32" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="B32" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="C32" s="2" t="s">
+      <c r="D32" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="F32" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="G32" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="D32" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="F32" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="G32" s="2" t="s">
+      <c r="H32" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="H32" s="2" t="s">
+      <c r="I32" s="3" t="s">
         <v>165</v>
-      </c>
-      <c r="I32" s="3" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="B33" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="B33" s="2" t="s">
-        <v>168</v>
-      </c>
       <c r="C33" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D33" s="2">
         <v>4.0</v>
@@ -1478,24 +1468,24 @@
       </c>
       <c r="F33" s="2"/>
       <c r="G33" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="H33" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="H33" s="2" t="s">
+      <c r="I33" s="3" t="s">
         <v>170</v>
-      </c>
-      <c r="I33" s="3" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="B34" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="B34" s="2" t="s">
+      <c r="C34" s="2" t="s">
         <v>173</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>174</v>
       </c>
       <c r="D34" s="2">
         <v>1.0</v>
@@ -1505,22 +1495,22 @@
       </c>
       <c r="F34" s="2"/>
       <c r="G34" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H34" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="I34" s="3" t="s">
         <v>174</v>
-      </c>
-      <c r="I34" s="3" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="36">
       <c r="C36" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D36" s="6">
         <f t="shared" ref="D36:F36" si="1">sum(D2:D34)</f>
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E36" s="6">
         <f t="shared" si="1"/>
@@ -1533,11 +1523,11 @@
     </row>
     <row r="37">
       <c r="C37" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D37" s="6">
         <f t="shared" ref="D37:F37" si="2">count(D2:D34)</f>
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E37" s="6">
         <f t="shared" si="2"/>
@@ -1564,23 +1554,22 @@
     <hyperlink r:id="rId12" ref="I14"/>
     <hyperlink r:id="rId13" ref="I16"/>
     <hyperlink r:id="rId14" ref="I17"/>
-    <hyperlink r:id="rId15" ref="I18"/>
-    <hyperlink r:id="rId16" ref="I19"/>
-    <hyperlink r:id="rId17" ref="I20"/>
-    <hyperlink r:id="rId18" ref="I21"/>
-    <hyperlink r:id="rId19" ref="I23"/>
-    <hyperlink r:id="rId20" ref="I24"/>
-    <hyperlink r:id="rId21" ref="I25"/>
-    <hyperlink r:id="rId22" ref="I26"/>
-    <hyperlink r:id="rId23" ref="I27"/>
-    <hyperlink r:id="rId24" ref="I28"/>
-    <hyperlink r:id="rId25" ref="I29"/>
-    <hyperlink r:id="rId26" ref="I30"/>
-    <hyperlink r:id="rId27" ref="I31"/>
-    <hyperlink r:id="rId28" ref="I32"/>
-    <hyperlink r:id="rId29" ref="I33"/>
-    <hyperlink r:id="rId30" ref="I34"/>
+    <hyperlink r:id="rId15" ref="I19"/>
+    <hyperlink r:id="rId16" ref="I20"/>
+    <hyperlink r:id="rId17" ref="I21"/>
+    <hyperlink r:id="rId18" ref="I23"/>
+    <hyperlink r:id="rId19" ref="I24"/>
+    <hyperlink r:id="rId20" ref="I25"/>
+    <hyperlink r:id="rId21" ref="I26"/>
+    <hyperlink r:id="rId22" ref="I27"/>
+    <hyperlink r:id="rId23" ref="I28"/>
+    <hyperlink r:id="rId24" ref="I29"/>
+    <hyperlink r:id="rId25" ref="I30"/>
+    <hyperlink r:id="rId26" ref="I31"/>
+    <hyperlink r:id="rId27" ref="I32"/>
+    <hyperlink r:id="rId28" ref="I33"/>
+    <hyperlink r:id="rId29" ref="I34"/>
   </hyperlinks>
-  <drawing r:id="rId31"/>
+  <drawing r:id="rId30"/>
 </worksheet>
 </file>